--- a/data_excel/764.xlsx
+++ b/data_excel/764.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -771,8 +771,8 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>

--- a/data_excel/764.xlsx
+++ b/data_excel/764.xlsx
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -734,15 +734,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
